--- a/BackTest/2020-01-16 BackTest XRP.xlsx
+++ b/BackTest/2020-01-16 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,11 +715,17 @@
         <v>-3196397.333215</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +754,17 @@
         <v>-3718205.819579</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,7 +793,7 @@
         <v>-3563629.36376867</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>243.8</v>
@@ -789,7 +801,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -820,7 +832,7 @@
         <v>-3747453.74166867</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>244</v>
@@ -859,7 +871,7 @@
         <v>-3651205.87042605</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>243.3</v>
@@ -898,7 +910,7 @@
         <v>-3582841.26852605</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>243.7</v>
@@ -937,7 +949,7 @@
         <v>-3628205.00252605</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>245</v>
@@ -976,7 +988,7 @@
         <v>-3498188.23992605</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>244.7</v>
@@ -1015,7 +1027,7 @@
         <v>-3614961.225026051</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>245.5</v>
@@ -1054,7 +1066,7 @@
         <v>-3457771.141626051</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>244.6</v>
@@ -1093,7 +1105,7 @@
         <v>-3487335.084426051</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>245.5</v>
@@ -1132,7 +1144,7 @@
         <v>-3546276.043608421</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>245.2</v>
@@ -1171,7 +1183,7 @@
         <v>-3336534.442908421</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>244.8</v>
@@ -1210,7 +1222,7 @@
         <v>-3230909.16780842</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>245.3</v>
@@ -1249,7 +1261,7 @@
         <v>-3441458.703408421</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>245.5</v>
@@ -1288,7 +1300,7 @@
         <v>-3379193.84674588</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>245.4</v>
@@ -1327,7 +1339,7 @@
         <v>-3379193.84674588</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>245.5</v>
@@ -1366,7 +1378,7 @@
         <v>-3391190.43574588</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>245.5</v>
@@ -1405,7 +1417,7 @@
         <v>-3391190.43574588</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>245</v>
@@ -1444,7 +1456,7 @@
         <v>-3391190.43574588</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>245</v>
@@ -1483,7 +1495,7 @@
         <v>-3274597.754745881</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>245</v>
@@ -1522,7 +1534,7 @@
         <v>-3245770.588945881</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>245.2</v>
@@ -1561,7 +1573,7 @@
         <v>-3291815.58354588</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>245.3</v>
@@ -1600,7 +1612,7 @@
         <v>-3154667.38355335</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>245</v>
@@ -1639,7 +1651,7 @@
         <v>-3154667.38355335</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>245.3</v>
@@ -1678,7 +1690,7 @@
         <v>-3197068.15735335</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>245.3</v>
@@ -1717,7 +1729,7 @@
         <v>-3331842.54475335</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>245.1</v>
@@ -1756,7 +1768,7 @@
         <v>-3331842.54475335</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>245</v>
@@ -1795,7 +1807,7 @@
         <v>-3295996.60175335</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>245</v>
@@ -1834,7 +1846,7 @@
         <v>-3208056.95251589</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>245.4</v>
@@ -1873,7 +1885,7 @@
         <v>-3208056.95251589</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>245.8</v>
@@ -1912,7 +1924,7 @@
         <v>-3254752.02991589</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>245.8</v>
@@ -1951,7 +1963,7 @@
         <v>-3224605.42371589</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>245.6</v>
@@ -1990,7 +2002,7 @@
         <v>-3259205.754840651</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>245.9</v>
@@ -2029,7 +2041,7 @@
         <v>-3259205.754840651</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>245.8</v>
@@ -2068,7 +2080,7 @@
         <v>-3259205.754840651</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>245.8</v>
@@ -2107,7 +2119,7 @@
         <v>-3230140.458365411</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>245.8</v>
@@ -2146,7 +2158,7 @@
         <v>-3193307.15806541</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>246.3</v>
@@ -2185,7 +2197,7 @@
         <v>-3087814.68976541</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>246.7</v>
@@ -2224,9 +2236,11 @@
         <v>-3087814.68976541</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>247.2</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2261,9 +2275,11 @@
         <v>-3148005.039465411</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>247.2</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2298,9 +2314,11 @@
         <v>-3153430.07326541</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>247</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2372,9 +2390,11 @@
         <v>-3095398.91781744</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>247.1</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2409,9 +2429,11 @@
         <v>-3163768.05671744</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>247.3</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2446,9 +2468,11 @@
         <v>-3051597.47351744</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>247.1</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2594,9 +2618,11 @@
         <v>-3282011.21631744</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>248.4</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -3815,9 +3841,11 @@
         <v>1785102.543101299</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>259.3</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3889,9 +3917,11 @@
         <v>1608572.22941165</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>258.8</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -8921,16 +8951,18 @@
         <v>3744058.2241704</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L230" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
       <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
@@ -8956,11 +8988,15 @@
         <v>3646171.9192704</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8993,7 +9029,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9022,11 +9062,15 @@
         <v>3655920.1889704</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9055,11 +9099,15 @@
         <v>3655723.719470399</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9092,7 +9140,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9125,7 +9177,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9158,7 +9214,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9191,7 +9251,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9224,7 +9288,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9257,7 +9325,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9290,7 +9362,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9323,7 +9399,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9356,7 +9436,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9389,7 +9473,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9422,7 +9510,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9455,7 +9547,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +9584,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9521,7 +9621,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9554,7 +9658,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9587,7 +9695,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9620,7 +9732,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9653,7 +9769,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9686,7 +9806,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9719,7 +9843,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9752,7 +9880,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9785,7 +9917,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9818,7 +9954,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9851,7 +9991,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9884,7 +10028,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9917,7 +10065,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9950,7 +10102,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9983,7 +10139,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10016,7 +10176,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10049,7 +10213,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10082,7 +10250,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10115,7 +10287,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10148,7 +10324,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10181,7 +10361,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10214,7 +10398,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10247,7 +10435,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10280,7 +10472,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10313,7 +10509,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10346,7 +10546,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10379,7 +10583,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10412,7 +10620,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10445,7 +10657,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10478,7 +10694,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10511,7 +10731,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10544,7 +10768,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10577,7 +10805,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10610,7 +10842,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10643,7 +10879,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10676,7 +10916,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10709,7 +10953,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10742,7 +10990,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10775,7 +11027,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10808,7 +11064,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10841,7 +11101,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10874,7 +11138,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10907,7 +11175,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10940,7 +11212,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10973,7 +11249,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11006,7 +11286,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11039,7 +11323,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11072,7 +11360,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11105,7 +11397,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11138,7 +11434,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11171,7 +11471,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11204,7 +11508,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11237,7 +11545,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11270,7 +11582,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11303,7 +11619,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11336,7 +11656,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11369,7 +11693,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11402,7 +11730,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11435,7 +11767,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11468,7 +11804,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11501,7 +11841,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11534,7 +11878,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11567,7 +11915,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11600,7 +11952,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11633,7 +11989,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11666,7 +12026,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11699,7 +12063,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11732,7 +12100,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11765,7 +12137,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11798,7 +12174,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11831,7 +12211,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11864,7 +12248,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11897,7 +12285,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11930,7 +12322,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11963,7 +12359,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11996,7 +12396,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12029,7 +12433,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12062,7 +12470,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12095,7 +12507,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12128,7 +12544,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12161,7 +12581,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12194,7 +12618,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12227,7 +12655,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12260,7 +12692,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12293,7 +12729,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12326,7 +12766,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12359,7 +12803,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12392,7 +12840,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12425,7 +12877,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12458,7 +12914,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12491,7 +12951,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12524,7 +12988,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12557,7 +13025,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12590,7 +13062,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12623,7 +13099,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12656,7 +13136,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12689,7 +13173,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12722,7 +13210,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12755,7 +13247,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12788,7 +13284,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12821,7 +13321,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12854,7 +13358,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12887,7 +13395,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12920,7 +13432,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12953,7 +13469,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12986,7 +13506,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13019,7 +13543,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13052,7 +13580,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13085,7 +13617,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13118,7 +13654,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13151,7 +13691,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13184,7 +13728,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13217,7 +13765,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13250,7 +13802,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13279,11 +13835,15 @@
         <v>3492710.589853078</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13316,7 +13876,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13345,11 +13909,15 @@
         <v>3458673.453053538</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13378,11 +13946,15 @@
         <v>3474236.598153538</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13411,11 +13983,15 @@
         <v>3474236.598153538</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13444,11 +14020,15 @@
         <v>3478932.184253538</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13477,11 +14057,15 @@
         <v>3471780.893853538</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13510,11 +14094,15 @@
         <v>3470760.323453538</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13543,11 +14131,15 @@
         <v>3477962.907953538</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13576,11 +14168,15 @@
         <v>3533286.646353538</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13613,7 +14209,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13646,7 +14246,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13675,11 +14279,15 @@
         <v>3743603.332216198</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13708,11 +14316,15 @@
         <v>3790515.249291968</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13741,11 +14353,15 @@
         <v>3790515.249291968</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13774,11 +14390,15 @@
         <v>3796479.354412017</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13807,11 +14427,15 @@
         <v>3796479.354412017</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13840,11 +14464,15 @@
         <v>3863924.097291967</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13873,11 +14501,15 @@
         <v>3863924.097291967</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13906,11 +14538,15 @@
         <v>3914829.148291967</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13939,11 +14575,15 @@
         <v>3860792.876691967</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13972,11 +14612,15 @@
         <v>4088473.882856297</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14005,11 +14649,15 @@
         <v>4083033.882856297</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14038,11 +14686,15 @@
         <v>4112355.394166417</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14071,11 +14723,15 @@
         <v>4121949.447566418</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14104,11 +14760,15 @@
         <v>4173293.958566417</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14137,11 +14797,15 @@
         <v>4173293.958566417</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14174,7 +14838,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14203,11 +14871,15 @@
         <v>4173293.958566417</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14236,11 +14908,15 @@
         <v>4124625.215666417</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14269,11 +14945,15 @@
         <v>4130338.117053878</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14302,11 +14982,15 @@
         <v>4096951.942368348</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14335,11 +15019,15 @@
         <v>4096951.942368348</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14368,11 +15056,15 @@
         <v>3976398.729968348</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14401,11 +15093,15 @@
         <v>3976398.729968348</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14434,11 +15130,15 @@
         <v>3729437.501668348</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14467,11 +15167,15 @@
         <v>3729437.501668348</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14500,11 +15204,15 @@
         <v>4024812.590268347</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14533,11 +15241,15 @@
         <v>3947140.015968347</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14566,11 +15278,15 @@
         <v>3823782.839445278</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14603,7 +15319,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14636,7 +15356,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14669,7 +15393,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14702,7 +15430,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14735,7 +15467,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14768,7 +15504,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14801,7 +15541,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14834,7 +15578,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14867,7 +15615,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14900,7 +15652,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14933,7 +15689,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14966,7 +15726,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14999,7 +15763,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15032,7 +15800,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15065,7 +15837,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15098,7 +15874,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15131,7 +15911,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15164,7 +15948,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15197,7 +15985,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15230,7 +16022,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15263,7 +16059,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15296,7 +16096,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15329,7 +16133,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15362,7 +16170,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15395,7 +16207,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15428,7 +16244,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15461,7 +16281,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15494,7 +16318,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15527,7 +16355,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15560,7 +16392,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15593,7 +16429,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15626,7 +16466,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15659,7 +16503,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15692,7 +16540,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15725,7 +16577,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15758,7 +16614,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15791,7 +16651,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15824,7 +16688,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15857,7 +16725,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15890,7 +16762,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15923,7 +16799,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15956,7 +16836,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15989,7 +16873,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16022,7 +16910,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16055,7 +16947,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16088,7 +16984,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16121,7 +17021,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16154,7 +17058,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16187,7 +17095,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16220,7 +17132,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16253,7 +17169,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16286,7 +17206,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16319,7 +17243,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16352,7 +17280,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16385,7 +17317,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16418,7 +17354,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16451,7 +17391,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16484,7 +17428,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16517,7 +17465,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16546,11 +17498,15 @@
         <v>5082094.605690368</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16579,11 +17535,15 @@
         <v>4878477.704444477</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16612,11 +17572,15 @@
         <v>5221888.238012387</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16645,11 +17609,15 @@
         <v>5366615.475888577</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16678,11 +17646,15 @@
         <v>5019491.648428597</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16711,11 +17683,15 @@
         <v>4017405.173191387</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16748,7 +17724,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16781,7 +17761,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16814,7 +17798,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16847,7 +17835,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16880,7 +17872,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16913,7 +17909,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16946,7 +17946,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16979,7 +17983,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17012,7 +18020,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17045,7 +18057,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17078,7 +18094,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17111,7 +18131,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17144,7 +18168,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17177,7 +18205,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17210,7 +18242,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17243,7 +18279,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17276,7 +18316,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17309,7 +18353,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17342,7 +18390,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17375,7 +18427,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17408,7 +18464,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17441,7 +18501,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17474,7 +18538,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17507,7 +18575,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17540,7 +18612,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17573,7 +18649,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17606,7 +18686,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17639,7 +18723,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17672,7 +18760,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17705,7 +18797,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17738,7 +18834,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17771,7 +18871,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17804,7 +18908,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17837,7 +18945,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17870,7 +18982,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17903,7 +19019,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17936,7 +19056,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17969,7 +19093,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18002,7 +19130,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18035,7 +19167,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18068,7 +19204,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18101,7 +19241,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18134,7 +19278,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18167,7 +19315,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18200,7 +19352,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18233,7 +19389,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18266,7 +19426,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18295,11 +19459,15 @@
         <v>6162193.828751136</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18328,11 +19496,15 @@
         <v>6532929.072492326</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18361,11 +19533,15 @@
         <v>6672914.894964065</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18394,11 +19570,15 @@
         <v>6892482.324764065</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18427,11 +19607,15 @@
         <v>6825292.849764066</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18464,7 +19648,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18493,11 +19681,15 @@
         <v>7046216.427564066</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18526,11 +19718,15 @@
         <v>7109389.114682126</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18559,11 +19755,15 @@
         <v>7372199.795471296</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18592,11 +19792,15 @@
         <v>7989028.507863206</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18625,11 +19829,15 @@
         <v>9014766.701855876</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18658,11 +19866,15 @@
         <v>8236794.481382776</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18691,11 +19903,15 @@
         <v>7863584.283943626</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18724,11 +19940,15 @@
         <v>7587543.204577606</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18757,11 +19977,15 @@
         <v>6990496.715904546</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18790,11 +20014,15 @@
         <v>7410937.943431486</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18823,11 +20051,15 @@
         <v>7548178.500484866</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18860,7 +20092,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18893,7 +20129,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18926,7 +20166,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18959,7 +20203,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18992,7 +20240,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19025,7 +20277,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19054,14 +20310,16 @@
         <v>9491636.459388625</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="inlineStr"/>
     </row>
     <row r="538">
@@ -19087,7 +20345,7 @@
         <v>9756544.993688624</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19120,7 +20378,7 @@
         <v>10876198.07498455</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19153,7 +20411,7 @@
         <v>11632206.45444399</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19186,7 +20444,7 @@
         <v>10643830.17687353</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19219,7 +20477,7 @@
         <v>11023104.23929961</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19252,7 +20510,7 @@
         <v>10452042.42432569</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19285,7 +20543,7 @@
         <v>9636265.073076764</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19318,7 +20576,7 @@
         <v>9135244.770178454</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19351,7 +20609,7 @@
         <v>8269497.078880344</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19384,7 +20642,7 @@
         <v>7629224.750816364</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19417,7 +20675,7 @@
         <v>6555929.084016364</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19450,7 +20708,7 @@
         <v>5747690.072962524</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19483,7 +20741,7 @@
         <v>5367695.271462524</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19516,7 +20774,7 @@
         <v>5718511.517236454</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19549,7 +20807,7 @@
         <v>6071706.218602435</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19582,7 +20840,7 @@
         <v>5284008.986413305</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19615,7 +20873,7 @@
         <v>5443828.308186934</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19648,7 +20906,7 @@
         <v>4834357.628568474</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19681,7 +20939,7 @@
         <v>5122611.309780934</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19714,7 +20972,7 @@
         <v>4475117.086980934</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19747,7 +21005,7 @@
         <v>4679457.492385704</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19780,7 +21038,7 @@
         <v>4965079.531880934</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19813,7 +21071,7 @@
         <v>5130565.564580164</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19846,7 +21104,7 @@
         <v>4631487.913727234</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19879,7 +21137,7 @@
         <v>5354696.658115734</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19912,7 +21170,7 @@
         <v>5107403.850515734</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19945,7 +21203,7 @@
         <v>5107403.850515734</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19978,7 +21236,7 @@
         <v>4708964.963752764</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20011,7 +21269,7 @@
         <v>4470052.191245064</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20044,7 +21302,7 @@
         <v>4479845.964910944</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20077,7 +21335,7 @@
         <v>4479845.964910944</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20110,7 +21368,7 @@
         <v>4479845.964910944</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21793,7 +23051,7 @@
         <v>5334689.515411244</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21925,7 +23183,7 @@
         <v>5392211.531611244</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22024,7 +23282,7 @@
         <v>5446766.833655784</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22585,7 +23843,7 @@
         <v>6524862.282820264</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22618,7 +23876,7 @@
         <v>6598057.593220264</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22651,7 +23909,7 @@
         <v>6531720.996320263</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22684,7 +23942,7 @@
         <v>6669034.313166373</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22717,7 +23975,7 @@
         <v>6669034.313166373</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22750,7 +24008,7 @@
         <v>6554828.849659894</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22783,7 +24041,7 @@
         <v>6537013.504259894</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22816,7 +24074,7 @@
         <v>6491709.953406404</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22849,7 +24107,7 @@
         <v>6491709.953406404</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22882,7 +24140,7 @@
         <v>6431183.370029664</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23014,7 +24272,7 @@
         <v>6473260.587129663</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23047,7 +24305,7 @@
         <v>6540236.609839863</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23080,7 +24338,7 @@
         <v>6499969.819639863</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23113,7 +24371,7 @@
         <v>6487756.430739864</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23146,7 +24404,7 @@
         <v>6487756.430739864</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23179,7 +24437,7 @@
         <v>6487756.430739864</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23212,7 +24470,7 @@
         <v>6448242.443939864</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23245,7 +24503,7 @@
         <v>6448242.443939864</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23278,7 +24536,7 @@
         <v>6393509.849439864</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23311,7 +24569,7 @@
         <v>6354937.632439864</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23410,7 +24668,7 @@
         <v>5971749.844359884</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23443,7 +24701,7 @@
         <v>6159818.470359884</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23476,7 +24734,7 @@
         <v>6114301.120759884</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -29746,7 +31004,7 @@
         <v>1153111.838892184</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29779,7 +31037,7 @@
         <v>1275800.516862624</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -29812,7 +31070,7 @@
         <v>1398244.567977364</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -29845,7 +31103,7 @@
         <v>1357059.594177364</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29878,7 +31136,7 @@
         <v>1398397.572162624</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30043,7 +31301,7 @@
         <v>1544785.366601124</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -36808,7 +38066,7 @@
         <v>2162081.734747552</v>
       </c>
       <c r="H1075" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -36841,7 +38099,7 @@
         <v>2264031.364632642</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -45894,6 +47152,6 @@
       <c r="M1350" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XRP.xlsx
+++ b/BackTest/2020-01-16 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2353,9 +2353,11 @@
         <v>-3137747.62647938</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>246.9</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2390,11 +2392,9 @@
         <v>-3095398.91781744</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>247.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2429,11 +2429,9 @@
         <v>-3163768.05671744</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>247.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2507,9 +2505,11 @@
         <v>-3148564.90521744</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>247.5</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2544,9 +2544,11 @@
         <v>-3128974.41871744</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>247.1</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2618,11 +2620,9 @@
         <v>-3282011.21631744</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>248.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2953,18 +2953,16 @@
         <v>4602581.76885781</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2990,15 +2988,11 @@
         <v>3462859.294781379</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3027,15 +3021,11 @@
         <v>2949763.19335635</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3068,11 +3058,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3105,11 +3091,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3142,11 +3124,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3179,11 +3157,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3216,11 +3190,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3253,11 +3223,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3290,11 +3256,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3327,11 +3289,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3364,11 +3322,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3401,11 +3355,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3438,11 +3388,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3475,11 +3421,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3512,11 +3454,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3549,11 +3487,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3520,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3623,11 +3553,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3660,11 +3586,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3697,11 +3619,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3730,15 +3648,11 @@
         <v>1669538.557601299</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3767,15 +3681,11 @@
         <v>1565361.585401299</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3804,15 +3714,11 @@
         <v>1812026.020901299</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3841,17 +3747,11 @@
         <v>1785102.543101299</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>259.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3880,15 +3780,11 @@
         <v>1746434.239531179</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3917,17 +3813,11 @@
         <v>1608572.22941165</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>258.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3956,15 +3846,11 @@
         <v>1653222.923411649</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3993,15 +3879,11 @@
         <v>1793824.37991165</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4030,15 +3912,11 @@
         <v>2051063.066211649</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4067,15 +3945,11 @@
         <v>1928634.31671165</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4108,11 +3982,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4145,11 +4015,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4182,11 +4048,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4219,11 +4081,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4256,11 +4114,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4293,11 +4147,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4330,11 +4180,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4367,11 +4213,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4404,11 +4246,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4441,11 +4279,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4478,11 +4312,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4515,11 +4345,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4552,11 +4378,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4589,11 +4411,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4626,11 +4444,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4663,11 +4477,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4700,11 +4510,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4737,11 +4543,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4576,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4811,11 +4609,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4848,11 +4642,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4885,11 +4675,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4922,11 +4708,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4959,11 +4741,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4996,11 +4774,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5033,11 +4807,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5070,11 +4840,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +4873,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5144,11 +4906,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5181,11 +4939,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5218,11 +4972,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5255,11 +5005,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5292,11 +5038,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5329,11 +5071,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5366,11 +5104,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5403,11 +5137,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5170,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5477,11 +5203,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5514,11 +5236,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +5269,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5588,11 +5302,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5625,11 +5335,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5662,11 +5368,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5401,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5736,11 +5434,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5773,11 +5467,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5810,11 +5500,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5847,11 +5533,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5884,11 +5566,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +5599,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5958,11 +5632,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +5665,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +5698,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +5731,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +5764,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +5797,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +5830,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +5863,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6254,11 +5896,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +5929,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6328,11 +5962,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6365,11 +5995,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6402,11 +6028,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6439,11 +6061,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6476,11 +6094,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +6127,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6550,11 +6160,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6587,11 +6193,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6624,11 +6226,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6661,11 +6259,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6698,11 +6292,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6735,11 +6325,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6772,11 +6358,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6809,11 +6391,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6846,11 +6424,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +6457,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6920,11 +6490,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6957,11 +6523,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6994,11 +6556,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7031,11 +6589,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7068,11 +6622,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7105,11 +6655,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7142,11 +6688,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7179,11 +6721,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +6754,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7253,11 +6787,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7290,11 +6820,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7327,11 +6853,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7364,11 +6886,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7401,11 +6919,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +6952,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7475,11 +6985,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +7018,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7549,11 +7051,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7586,11 +7084,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7623,11 +7117,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7660,11 +7150,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7697,11 +7183,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7734,11 +7216,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7771,11 +7249,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7808,11 +7282,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +7315,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7882,11 +7348,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7919,11 +7381,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7956,11 +7414,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7993,11 +7447,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8030,11 +7480,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8067,11 +7513,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8104,11 +7546,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8141,11 +7579,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8178,11 +7612,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8215,11 +7645,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8252,11 +7678,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8289,11 +7711,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8326,11 +7744,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8363,11 +7777,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8400,11 +7810,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +7843,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8474,11 +7876,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8511,11 +7909,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +7942,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8585,11 +7975,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8622,11 +8008,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +8041,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8696,11 +8074,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8733,11 +8107,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8770,11 +8140,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8807,11 +8173,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8844,11 +8206,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8881,11 +8239,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8918,11 +8272,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8955,11 +8305,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8992,11 +8338,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9029,11 +8371,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9066,11 +8404,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9103,11 +8437,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9140,11 +8470,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9177,11 +8503,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9214,11 +8536,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9251,11 +8569,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9288,11 +8602,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9325,11 +8635,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +8668,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9399,11 +8701,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9436,11 +8734,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9473,11 +8767,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9510,11 +8800,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9547,11 +8833,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9584,11 +8866,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9621,11 +8899,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +8932,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9695,11 +8965,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9732,11 +8998,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9769,11 +9031,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9806,11 +9064,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9843,11 +9097,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9880,11 +9130,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9917,11 +9163,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9954,11 +9196,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9991,11 +9229,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10028,11 +9262,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10065,11 +9295,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10102,11 +9328,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10139,11 +9361,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10176,11 +9394,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10213,11 +9427,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10250,11 +9460,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10287,11 +9493,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10324,11 +9526,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10361,11 +9559,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10398,11 +9592,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10435,11 +9625,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10472,11 +9658,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10509,11 +9691,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10546,11 +9724,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10583,11 +9757,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10620,11 +9790,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10657,11 +9823,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10694,11 +9856,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10731,11 +9889,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10768,11 +9922,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10805,11 +9955,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10842,11 +9988,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +10021,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10916,11 +10054,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10953,11 +10087,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10990,11 +10120,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11027,11 +10153,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11064,11 +10186,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11101,11 +10219,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11138,11 +10252,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11175,11 +10285,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11212,11 +10318,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11249,11 +10351,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11286,11 +10384,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11323,11 +10417,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11360,11 +10450,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11397,11 +10483,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11434,11 +10516,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11471,11 +10549,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11508,11 +10582,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11545,11 +10615,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11582,11 +10648,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11619,11 +10681,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11656,11 +10714,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11693,11 +10747,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11730,11 +10780,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11767,11 +10813,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11804,11 +10846,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11841,11 +10879,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11878,11 +10912,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11915,11 +10945,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11952,11 +10978,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11989,11 +11011,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12026,11 +11044,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12063,11 +11077,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +11110,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12137,11 +11143,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12174,11 +11176,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12211,11 +11209,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12248,11 +11242,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12285,11 +11275,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12322,11 +11308,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12359,11 +11341,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12396,11 +11374,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12433,11 +11407,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12470,11 +11440,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12507,11 +11473,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12544,11 +11506,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12581,11 +11539,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12618,11 +11572,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12655,11 +11605,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12692,11 +11638,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12729,11 +11671,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12766,11 +11704,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12803,11 +11737,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12840,11 +11770,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12877,11 +11803,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12914,11 +11836,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12951,11 +11869,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12988,11 +11902,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13025,11 +11935,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13062,11 +11968,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13099,11 +12001,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13136,11 +12034,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13173,11 +12067,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13210,11 +12100,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13247,11 +12133,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13284,11 +12166,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +12199,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13358,11 +12232,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13395,11 +12265,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13432,11 +12298,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13469,11 +12331,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13506,11 +12364,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13543,11 +12397,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13580,11 +12430,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13617,11 +12463,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13654,11 +12496,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13691,11 +12529,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13728,11 +12562,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13765,11 +12595,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13802,11 +12628,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13839,11 +12661,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13876,11 +12694,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13913,11 +12727,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13950,11 +12760,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13987,11 +12793,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14024,11 +12826,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14061,11 +12859,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14098,11 +12892,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14135,11 +12925,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14172,11 +12958,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14209,11 +12991,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14246,11 +13024,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14283,11 +13057,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14320,11 +13090,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14357,11 +13123,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14394,11 +13156,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14431,11 +13189,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14468,11 +13222,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14505,11 +13255,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +13288,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14579,11 +13321,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14616,11 +13354,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14653,11 +13387,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14690,11 +13420,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14727,11 +13453,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14764,11 +13486,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14801,11 +13519,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14838,11 +13552,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14875,11 +13585,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14912,11 +13618,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14949,11 +13651,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14986,11 +13684,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15023,11 +13717,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15060,11 +13750,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15097,11 +13783,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15134,11 +13816,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15171,11 +13849,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15208,11 +13882,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15245,11 +13915,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15282,11 +13948,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15319,11 +13981,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15356,11 +14014,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15393,11 +14047,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15430,11 +14080,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15467,11 +14113,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15504,11 +14146,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15541,11 +14179,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15578,11 +14212,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15615,11 +14245,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15652,11 +14278,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15689,11 +14311,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15726,11 +14344,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +14377,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15800,11 +14410,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15837,11 +14443,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15874,11 +14476,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15911,11 +14509,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15948,11 +14542,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15985,11 +14575,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16022,11 +14608,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16059,11 +14641,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16096,11 +14674,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16133,11 +14707,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16170,11 +14740,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16207,11 +14773,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16244,11 +14806,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16281,11 +14839,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16318,11 +14872,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16355,11 +14905,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16392,11 +14938,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16429,11 +14971,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16466,11 +15004,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16503,11 +15037,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16540,11 +15070,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16577,11 +15103,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16614,11 +15136,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16651,11 +15169,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16688,11 +15202,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16725,11 +15235,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16762,11 +15268,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16799,11 +15301,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16836,11 +15334,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16873,11 +15367,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16910,11 +15400,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16947,11 +15433,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +15466,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17021,11 +15499,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17058,11 +15532,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17095,11 +15565,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17132,11 +15598,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17169,11 +15631,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17206,11 +15664,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17243,11 +15697,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17280,11 +15730,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17317,11 +15763,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17354,11 +15796,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17391,11 +15829,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17428,11 +15862,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17465,11 +15895,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17502,11 +15928,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17539,11 +15961,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17576,11 +15994,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17613,11 +16027,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17650,11 +16060,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17687,11 +16093,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17724,11 +16126,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17761,11 +16159,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17798,11 +16192,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17835,11 +16225,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17872,11 +16258,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17909,11 +16291,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17946,11 +16324,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17983,11 +16357,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18020,11 +16390,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18057,11 +16423,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18094,11 +16456,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18131,11 +16489,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18168,11 +16522,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +16555,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18242,11 +16588,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18279,11 +16621,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18316,11 +16654,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18353,11 +16687,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18390,11 +16720,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18427,11 +16753,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18464,11 +16786,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18501,11 +16819,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18538,11 +16852,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18575,11 +16885,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18612,11 +16918,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18649,11 +16951,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18686,11 +16984,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18723,11 +17017,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18760,11 +17050,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18797,11 +17083,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18834,11 +17116,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18871,11 +17149,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18908,11 +17182,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18945,11 +17215,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18982,11 +17248,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19019,11 +17281,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19056,11 +17314,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19093,11 +17347,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19130,11 +17380,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19167,11 +17413,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19204,11 +17446,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19241,11 +17479,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19278,11 +17512,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19315,11 +17545,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19352,11 +17578,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19389,11 +17611,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +17644,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19463,11 +17677,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19500,11 +17710,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19537,11 +17743,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19574,11 +17776,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19611,11 +17809,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19648,11 +17842,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19685,11 +17875,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19722,11 +17908,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19759,11 +17941,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19796,11 +17974,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19833,11 +18007,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19870,11 +18040,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19907,11 +18073,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19944,11 +18106,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19981,11 +18139,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20018,11 +18172,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20055,11 +18205,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20092,11 +18238,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20129,11 +18271,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20166,11 +18304,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20203,11 +18337,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20240,11 +18370,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20277,11 +18403,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20310,16 +18432,14 @@
         <v>9491636.459388625</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
       <c r="M537" t="inlineStr"/>
     </row>
     <row r="538">
@@ -20345,7 +18465,7 @@
         <v>9756544.993688624</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20378,7 +18498,7 @@
         <v>10876198.07498455</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20411,7 +18531,7 @@
         <v>11632206.45444399</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20444,7 +18564,7 @@
         <v>10643830.17687353</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20477,7 +18597,7 @@
         <v>11023104.23929961</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20510,7 +18630,7 @@
         <v>10452042.42432569</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20543,7 +18663,7 @@
         <v>9636265.073076764</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20576,7 +18696,7 @@
         <v>9135244.770178454</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20609,7 +18729,7 @@
         <v>8269497.078880344</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20642,7 +18762,7 @@
         <v>7629224.750816364</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20675,7 +18795,7 @@
         <v>6555929.084016364</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20708,7 +18828,7 @@
         <v>5747690.072962524</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20741,7 +18861,7 @@
         <v>5367695.271462524</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20774,7 +18894,7 @@
         <v>5718511.517236454</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20807,7 +18927,7 @@
         <v>6071706.218602435</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20840,7 +18960,7 @@
         <v>5284008.986413305</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20873,7 +18993,7 @@
         <v>5443828.308186934</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20906,7 +19026,7 @@
         <v>4834357.628568474</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20939,7 +19059,7 @@
         <v>5122611.309780934</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20972,7 +19092,7 @@
         <v>4475117.086980934</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21005,7 +19125,7 @@
         <v>4679457.492385704</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21038,7 +19158,7 @@
         <v>4965079.531880934</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21071,7 +19191,7 @@
         <v>5130565.564580164</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21104,7 +19224,7 @@
         <v>4631487.913727234</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21137,7 +19257,7 @@
         <v>5354696.658115734</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21170,7 +19290,7 @@
         <v>5107403.850515734</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21203,7 +19323,7 @@
         <v>5107403.850515734</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21236,7 +19356,7 @@
         <v>4708964.963752764</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21269,7 +19389,7 @@
         <v>4470052.191245064</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21302,7 +19422,7 @@
         <v>4479845.964910944</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21335,7 +19455,7 @@
         <v>4479845.964910944</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21368,7 +19488,7 @@
         <v>4479845.964910944</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -24437,7 +22557,7 @@
         <v>6487756.430739864</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24470,7 +22590,7 @@
         <v>6448242.443939864</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24503,7 +22623,7 @@
         <v>6448242.443939864</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24569,7 +22689,7 @@
         <v>6354937.632439864</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24668,7 +22788,7 @@
         <v>5971749.844359884</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24701,7 +22821,7 @@
         <v>6159818.470359884</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24734,7 +22854,7 @@
         <v>6114301.120759884</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -47152,6 +45272,6 @@
       <c r="M1350" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XRP.xlsx
+++ b/BackTest/2020-01-16 BackTest XRP.xlsx
@@ -715,17 +715,11 @@
         <v>-3196397.333215</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>244.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -754,17 +748,11 @@
         <v>-3718205.819579</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>244.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -793,17 +781,11 @@
         <v>-3563629.36376867</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>243.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -832,17 +814,11 @@
         <v>-3747453.74166867</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -876,12 +852,10 @@
       <c r="I14" t="n">
         <v>243.3</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -915,10 +889,12 @@
       <c r="I15" t="n">
         <v>243.7</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -954,10 +930,12 @@
       <c r="I16" t="n">
         <v>245</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -993,10 +971,12 @@
       <c r="I17" t="n">
         <v>244.7</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1032,7 +1012,9 @@
       <c r="I18" t="n">
         <v>245.5</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1071,7 +1053,9 @@
       <c r="I19" t="n">
         <v>244.6</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1110,7 +1094,9 @@
       <c r="I20" t="n">
         <v>245.5</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1149,7 +1135,9 @@
       <c r="I21" t="n">
         <v>245.2</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1188,7 +1176,9 @@
       <c r="I22" t="n">
         <v>244.8</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1227,7 +1217,9 @@
       <c r="I23" t="n">
         <v>245.3</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1266,7 +1258,9 @@
       <c r="I24" t="n">
         <v>245.5</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1305,7 +1299,9 @@
       <c r="I25" t="n">
         <v>245.4</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1344,7 +1340,9 @@
       <c r="I26" t="n">
         <v>245.5</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1383,7 +1381,9 @@
       <c r="I27" t="n">
         <v>245.5</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1422,7 +1422,9 @@
       <c r="I28" t="n">
         <v>245</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1461,7 +1463,9 @@
       <c r="I29" t="n">
         <v>245</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1500,7 +1504,9 @@
       <c r="I30" t="n">
         <v>245</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1539,7 +1545,9 @@
       <c r="I31" t="n">
         <v>245.2</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1578,7 +1586,9 @@
       <c r="I32" t="n">
         <v>245.3</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1617,7 +1627,9 @@
       <c r="I33" t="n">
         <v>245</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1656,7 +1668,9 @@
       <c r="I34" t="n">
         <v>245.3</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1695,7 +1709,9 @@
       <c r="I35" t="n">
         <v>245.3</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1734,7 +1750,9 @@
       <c r="I36" t="n">
         <v>245.1</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1773,7 +1791,9 @@
       <c r="I37" t="n">
         <v>245</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1812,7 +1832,9 @@
       <c r="I38" t="n">
         <v>245</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1851,7 +1873,9 @@
       <c r="I39" t="n">
         <v>245.4</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1890,7 +1914,9 @@
       <c r="I40" t="n">
         <v>245.8</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1929,7 +1955,9 @@
       <c r="I41" t="n">
         <v>245.8</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1968,7 +1996,9 @@
       <c r="I42" t="n">
         <v>245.6</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2007,7 +2037,9 @@
       <c r="I43" t="n">
         <v>245.9</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2046,7 +2078,9 @@
       <c r="I44" t="n">
         <v>245.8</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2085,7 +2119,9 @@
       <c r="I45" t="n">
         <v>245.8</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2124,7 +2160,9 @@
       <c r="I46" t="n">
         <v>245.8</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2163,7 +2201,9 @@
       <c r="I47" t="n">
         <v>246.3</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2202,7 +2242,9 @@
       <c r="I48" t="n">
         <v>246.7</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2241,7 +2283,9 @@
       <c r="I49" t="n">
         <v>247.2</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2280,7 +2324,9 @@
       <c r="I50" t="n">
         <v>247.2</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2319,7 +2365,9 @@
       <c r="I51" t="n">
         <v>247</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2358,7 +2406,9 @@
       <c r="I52" t="n">
         <v>246.9</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2392,10 +2442,14 @@
         <v>-3095398.91781744</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>247.1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2429,10 +2483,14 @@
         <v>-3163768.05671744</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>247.3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,7 +2529,9 @@
       <c r="I55" t="n">
         <v>247.1</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2510,7 +2570,9 @@
       <c r="I56" t="n">
         <v>247.5</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2549,7 +2611,9 @@
       <c r="I57" t="n">
         <v>247.1</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2586,7 +2650,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2623,7 +2689,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2660,7 +2728,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2697,7 +2767,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2734,7 +2806,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2771,7 +2845,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2808,7 +2884,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2845,7 +2923,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2882,7 +2962,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2919,7 +3001,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2953,16 +3037,20 @@
         <v>4602581.76885781</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
       <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2988,11 +3076,17 @@
         <v>3462859.294781379</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3021,11 +3115,17 @@
         <v>2949763.19335635</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3057,8 +3157,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3090,8 +3196,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3123,8 +3235,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3156,8 +3274,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3189,8 +3313,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3222,8 +3352,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3255,8 +3391,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3288,8 +3430,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3321,8 +3469,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3354,8 +3508,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3387,8 +3547,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3420,8 +3586,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3453,8 +3625,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3486,8 +3664,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3519,8 +3703,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3552,8 +3742,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3585,8 +3781,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3618,8 +3820,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3648,11 +3856,17 @@
         <v>1669538.557601299</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3681,11 +3895,17 @@
         <v>1565361.585401299</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3714,11 +3934,17 @@
         <v>1812026.020901299</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3747,11 +3973,17 @@
         <v>1785102.543101299</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3780,11 +4012,17 @@
         <v>1746434.239531179</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3813,11 +4051,17 @@
         <v>1608572.22941165</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3846,11 +4090,17 @@
         <v>1653222.923411649</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3879,11 +4129,17 @@
         <v>1793824.37991165</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3912,11 +4168,17 @@
         <v>2051063.066211649</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +4207,17 @@
         <v>1928634.31671165</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3981,8 +4249,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4014,8 +4288,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4047,8 +4327,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4080,8 +4366,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4113,8 +4405,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4146,8 +4444,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4179,8 +4483,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4212,8 +4522,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4245,8 +4561,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4278,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4311,8 +4639,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4344,8 +4678,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4377,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4410,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4443,8 +4795,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4476,8 +4834,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4509,8 +4873,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4542,8 +4912,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4575,8 +4951,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4608,8 +4990,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4641,8 +5029,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4674,8 +5068,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4707,8 +5107,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4740,8 +5146,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4773,8 +5185,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4806,8 +5224,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4839,8 +5263,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4872,8 +5302,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4905,8 +5341,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4938,8 +5380,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4971,8 +5419,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5004,8 +5458,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5037,8 +5497,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5070,8 +5536,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5103,8 +5575,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5136,8 +5614,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5169,8 +5653,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5202,8 +5692,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5235,8 +5731,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5268,8 +5770,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5301,8 +5809,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5334,8 +5848,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5367,8 +5887,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5400,8 +5926,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5433,8 +5965,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5466,8 +6004,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5499,8 +6043,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5532,8 +6082,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5565,8 +6121,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5598,8 +6160,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5631,8 +6199,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5664,8 +6238,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5697,8 +6277,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5730,8 +6316,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5763,8 +6355,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5796,8 +6394,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5829,8 +6433,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5862,8 +6472,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5895,8 +6511,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5928,8 +6550,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5961,8 +6589,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5994,8 +6628,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6027,8 +6667,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6060,8 +6706,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6093,8 +6745,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6126,8 +6784,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6159,8 +6823,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6192,8 +6862,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6225,8 +6901,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6258,8 +6940,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6291,8 +6979,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6324,8 +7018,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6357,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6390,8 +7096,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6423,8 +7135,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6456,8 +7174,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6489,8 +7213,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6522,8 +7252,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6555,8 +7291,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6588,8 +7330,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6621,8 +7369,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6654,8 +7408,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6687,8 +7447,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6720,8 +7486,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6753,8 +7525,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6786,8 +7564,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6819,8 +7603,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6852,8 +7642,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6885,8 +7681,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6918,8 +7720,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6951,8 +7759,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6984,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7017,8 +7837,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7050,8 +7876,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7083,8 +7915,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7116,8 +7954,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7149,8 +7993,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7182,8 +8032,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7215,8 +8071,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7248,8 +8110,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7281,8 +8149,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7314,8 +8188,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7347,8 +8227,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7380,8 +8266,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7413,8 +8305,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7446,8 +8344,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7479,8 +8383,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7512,8 +8422,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7545,8 +8461,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7578,8 +8500,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7611,8 +8539,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7644,8 +8578,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7677,8 +8617,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7710,8 +8656,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7743,8 +8695,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7776,8 +8734,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7809,8 +8773,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7842,8 +8812,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7875,8 +8851,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7908,8 +8890,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7941,8 +8929,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7974,8 +8968,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8007,8 +9007,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8040,8 +9046,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8073,8 +9085,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8106,8 +9124,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8139,8 +9163,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8172,8 +9202,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8205,8 +9241,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8238,8 +9280,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8271,8 +9319,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8304,8 +9358,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8337,8 +9397,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8370,8 +9436,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8403,8 +9475,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8436,8 +9514,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8469,8 +9553,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8502,8 +9592,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8535,8 +9631,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8568,8 +9670,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8601,8 +9709,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8634,8 +9748,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8667,8 +9787,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8700,8 +9826,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8733,8 +9865,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8766,8 +9904,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8799,8 +9943,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8832,8 +9982,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8865,8 +10021,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8898,8 +10060,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8931,8 +10099,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8964,8 +10138,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8997,8 +10177,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9030,8 +10216,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9063,8 +10255,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9096,8 +10294,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9129,8 +10333,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9162,8 +10372,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9195,8 +10411,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9228,8 +10450,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9261,8 +10489,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9294,8 +10528,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9327,8 +10567,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9360,8 +10606,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9393,8 +10645,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9426,8 +10684,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9459,8 +10723,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9492,8 +10762,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9525,8 +10801,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9558,8 +10840,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9591,8 +10879,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9624,8 +10918,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9657,8 +10957,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9690,8 +10996,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9723,8 +11035,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9756,8 +11074,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9789,8 +11113,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9822,8 +11152,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9855,8 +11191,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9888,8 +11230,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9921,8 +11269,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9954,8 +11308,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9987,8 +11347,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10020,8 +11386,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10053,8 +11425,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10086,8 +11464,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10119,8 +11503,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10152,8 +11542,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10185,8 +11581,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10218,8 +11620,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10251,8 +11659,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10284,8 +11698,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10317,8 +11737,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10350,8 +11776,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10383,8 +11815,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10416,8 +11854,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10449,8 +11893,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10482,8 +11932,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10515,8 +11971,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10548,8 +12010,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10581,8 +12049,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10614,8 +12088,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10647,8 +12127,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10680,8 +12166,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10713,8 +12205,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10746,8 +12244,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10779,8 +12283,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10812,8 +12322,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10845,8 +12361,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10878,8 +12400,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10911,8 +12439,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10944,8 +12478,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10977,8 +12517,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11010,8 +12556,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11043,8 +12595,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11076,8 +12634,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11109,8 +12673,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11142,8 +12712,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11175,8 +12751,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11208,8 +12790,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11241,8 +12829,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11274,8 +12868,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11307,8 +12907,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11340,8 +12946,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11373,8 +12985,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11406,8 +13024,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11439,8 +13063,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11472,8 +13102,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11505,8 +13141,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11538,8 +13180,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11571,8 +13219,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11604,8 +13258,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11637,8 +13297,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11670,8 +13336,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11703,8 +13375,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11736,8 +13414,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11769,8 +13453,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11802,8 +13492,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11835,8 +13531,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11868,8 +13570,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11901,8 +13609,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11934,8 +13648,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11967,8 +13687,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12000,8 +13726,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12033,8 +13765,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12066,8 +13804,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12099,8 +13843,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12132,8 +13882,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12165,8 +13921,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12198,8 +13960,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12231,8 +13999,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12264,8 +14038,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12297,8 +14077,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12330,8 +14116,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12363,8 +14155,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12396,8 +14194,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12429,8 +14233,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12462,8 +14272,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12495,8 +14311,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12528,8 +14350,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12561,8 +14389,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12594,8 +14428,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12627,8 +14467,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12660,8 +14506,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12693,8 +14545,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12726,8 +14584,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12759,8 +14623,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12792,8 +14662,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12825,8 +14701,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12858,8 +14740,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12891,8 +14779,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12924,8 +14818,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12957,8 +14857,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12990,8 +14896,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13023,8 +14935,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13056,8 +14974,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13089,8 +15013,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13122,8 +15052,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13155,8 +15091,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13188,8 +15130,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13221,8 +15169,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13254,8 +15208,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13287,8 +15247,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13320,8 +15286,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13353,8 +15325,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13386,8 +15364,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13419,8 +15403,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13452,8 +15442,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13485,8 +15481,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13518,8 +15520,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13551,8 +15559,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13584,8 +15598,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13617,8 +15637,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13650,8 +15676,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13683,8 +15715,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13716,8 +15754,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13749,8 +15793,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13782,8 +15832,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13815,8 +15871,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13848,8 +15910,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13881,8 +15949,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13914,8 +15988,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13947,8 +16027,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13980,8 +16066,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14013,8 +16105,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14046,8 +16144,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14079,8 +16183,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14112,8 +16222,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14145,8 +16261,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14178,8 +16300,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14211,8 +16339,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14244,8 +16378,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14277,8 +16417,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14310,8 +16456,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14343,8 +16495,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14376,8 +16534,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14409,8 +16573,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14442,8 +16612,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14475,8 +16651,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14508,8 +16690,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14541,8 +16729,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14574,8 +16768,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14607,8 +16807,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14640,8 +16846,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14673,8 +16885,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14706,8 +16924,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14739,8 +16963,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14772,8 +17002,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14805,8 +17041,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14838,8 +17080,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14871,8 +17119,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14904,8 +17158,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14937,8 +17197,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14970,8 +17236,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15003,8 +17275,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15036,8 +17314,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15069,8 +17353,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15102,8 +17392,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15135,8 +17431,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15168,8 +17470,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15201,8 +17509,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15234,8 +17548,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15267,8 +17587,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15300,8 +17626,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15333,8 +17665,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15366,8 +17704,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15399,8 +17743,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15432,8 +17782,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15465,8 +17821,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15498,8 +17860,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15531,8 +17899,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15564,8 +17938,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15597,8 +17977,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15630,8 +18016,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15663,8 +18055,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15696,8 +18094,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15729,8 +18133,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15762,8 +18172,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15795,8 +18211,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15828,8 +18250,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15861,8 +18289,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15894,8 +18328,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15927,8 +18367,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15960,8 +18406,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15993,8 +18445,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16026,8 +18484,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16059,8 +18523,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16092,8 +18562,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16125,8 +18601,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16158,8 +18640,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16191,8 +18679,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16224,8 +18718,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16257,8 +18757,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16290,8 +18796,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16323,8 +18835,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16356,8 +18874,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16389,8 +18913,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16422,8 +18952,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16455,8 +18991,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16488,8 +19030,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16521,8 +19069,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16554,8 +19108,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16587,8 +19147,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16620,8 +19186,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16653,8 +19225,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16686,8 +19264,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16719,8 +19303,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16752,8 +19342,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16785,8 +19381,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16818,8 +19420,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16851,8 +19459,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16884,8 +19498,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16917,8 +19537,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16950,8 +19576,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16983,8 +19615,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17016,8 +19654,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17049,8 +19693,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17082,8 +19732,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17115,8 +19771,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17148,8 +19810,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17181,8 +19849,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17214,8 +19888,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17247,8 +19927,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17280,8 +19966,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17313,8 +20005,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17346,8 +20044,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17379,8 +20083,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17412,8 +20122,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17445,8 +20161,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17478,8 +20200,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17511,8 +20239,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17544,8 +20278,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17577,8 +20317,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17610,8 +20356,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17643,8 +20395,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17676,8 +20434,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17709,8 +20473,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17742,8 +20512,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17775,8 +20551,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17808,8 +20590,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17841,8 +20629,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17874,8 +20668,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17907,8 +20707,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17940,8 +20746,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17973,8 +20785,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18006,8 +20824,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18039,8 +20863,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18072,8 +20902,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18105,8 +20941,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18138,8 +20980,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18171,8 +21019,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18204,8 +21058,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18237,8 +21097,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18270,8 +21136,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18300,15 +21172,23 @@
         <v>10103553.90600245</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
+        <v>1.105974106041924</v>
+      </c>
+      <c r="M533" t="n">
+        <v>1.023848684210526</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -18333,7 +21213,7 @@
         <v>10980370.07575748</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18366,7 +21246,7 @@
         <v>10309451.95750326</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18399,7 +21279,7 @@
         <v>9878495.209018495</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18432,7 +21312,7 @@
         <v>9491636.459388625</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18465,7 +21345,7 @@
         <v>9756544.993688624</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18498,7 +21378,7 @@
         <v>10876198.07498455</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18531,7 +21411,7 @@
         <v>11632206.45444399</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18564,7 +21444,7 @@
         <v>10643830.17687353</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18597,7 +21477,7 @@
         <v>11023104.23929961</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18630,7 +21510,7 @@
         <v>10452042.42432569</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18663,7 +21543,7 @@
         <v>9636265.073076764</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18696,7 +21576,7 @@
         <v>9135244.770178454</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18729,7 +21609,7 @@
         <v>8269497.078880344</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18762,7 +21642,7 @@
         <v>7629224.750816364</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18795,7 +21675,7 @@
         <v>6555929.084016364</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
